--- a/20160725/Daily_log_20160725.xlsx
+++ b/20160725/Daily_log_20160725.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="0" windowWidth="20700" windowHeight="9345"/>
+    <workbookView xWindow="7020" yWindow="0" windowWidth="20700" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="190">
   <si>
     <t>depart</t>
   </si>
@@ -445,6 +445,159 @@
   </si>
   <si>
     <t>PTR-IHC Smartsheet &amp; daily log</t>
+  </si>
+  <si>
+    <t>prep &amp; mtg w/ GI</t>
+  </si>
+  <si>
+    <t>update resource scheduler</t>
+  </si>
+  <si>
+    <t>prep for QC w/GI</t>
+  </si>
+  <si>
+    <t>update box documentation</t>
+  </si>
+  <si>
+    <t>discuss further experiments with Jessica</t>
+  </si>
+  <si>
+    <t>SH - setup</t>
+  </si>
+  <si>
+    <t>GI meeting</t>
+  </si>
+  <si>
+    <t>prep for SH imaging</t>
+  </si>
+  <si>
+    <t>calendar for helping Jessica with experiments</t>
+  </si>
+  <si>
+    <t>workstation familiarization</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>filing slidemaps</t>
+  </si>
+  <si>
+    <t>filing &amp; calendars</t>
+  </si>
+  <si>
+    <t>w/ Aaron reasons for channels selection based on wavelength</t>
+  </si>
+  <si>
+    <t>write documentation for using Airyscan</t>
+  </si>
+  <si>
+    <t>learn to split &amp; merge channels on Fiji</t>
+  </si>
+  <si>
+    <t>HR - update personal info</t>
+  </si>
+  <si>
+    <t>improve comments on past imaging documentation</t>
+  </si>
+  <si>
+    <t>20160701-101-63X-SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH - post </t>
+  </si>
+  <si>
+    <t>remove slide</t>
+  </si>
+  <si>
+    <t>20160701-101-63X-SH-2</t>
+  </si>
+  <si>
+    <t>remove slide; copy files; reassemble z-stack</t>
+  </si>
+  <si>
+    <t>read performance review</t>
+  </si>
+  <si>
+    <t>confocal tables</t>
+  </si>
+  <si>
+    <t>collect slidemaps &amp; project report; prep worksheets</t>
+  </si>
+  <si>
+    <t>20160810-100-20X-XZ</t>
+  </si>
+  <si>
+    <t>check on flies from last 2 weeks absence</t>
+  </si>
+  <si>
+    <t>Group Meetings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XZ, GI </t>
+  </si>
+  <si>
+    <t>GI &amp; KC</t>
+  </si>
+  <si>
+    <t>performance review</t>
+  </si>
+  <si>
+    <t>20160701_101_63X_SH-2</t>
+  </si>
+  <si>
+    <t>QC &amp; other imaging</t>
+  </si>
+  <si>
+    <t>SH Post</t>
+  </si>
+  <si>
+    <t>split C1/C2 image</t>
+  </si>
+  <si>
+    <t>copy to public &amp; HD</t>
+  </si>
+  <si>
+    <t>report time spent on 20160701_101_63X_SH-2</t>
+  </si>
+  <si>
+    <t>make Google spreadsheet for upcoming experiments</t>
+  </si>
+  <si>
+    <t>XZ Prep</t>
+  </si>
+  <si>
+    <t>slide map; get slide</t>
+  </si>
+  <si>
+    <t>20160810_100_20X</t>
+  </si>
+  <si>
+    <t>move desk</t>
+  </si>
+  <si>
+    <t>procrastination smartsheet</t>
+  </si>
+  <si>
+    <t>create line imaging history on confocal tables</t>
+  </si>
+  <si>
+    <t>20160810_100_20X_XZ</t>
+  </si>
+  <si>
+    <t>XZ Post</t>
+  </si>
+  <si>
+    <t>remove; record error; copy to PTR; MIPs; table; QC; stats; email</t>
+  </si>
+  <si>
+    <t>update planning calendar</t>
+  </si>
+  <si>
+    <t>zen error</t>
+  </si>
+  <si>
+    <t>Classes &amp; Training</t>
   </si>
 </sst>
 </file>
@@ -850,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E255"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,352 +2310,1189 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="2"/>
+      <c r="A90" s="1">
+        <v>42585</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="2"/>
+      <c r="A91" s="1">
+        <v>42585</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-      <c r="B92" s="2"/>
+      <c r="A92" s="1">
+        <v>42586</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="2"/>
+      <c r="A93" s="1">
+        <v>42586</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-      <c r="B94" s="2"/>
+      <c r="A94" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-      <c r="B95" s="2"/>
+      <c r="A95" s="1">
+        <v>42587</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1"/>
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1"/>
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1"/>
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1"/>
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1"/>
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1"/>
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1"/>
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1"/>
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="2"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
+      <c r="A96" s="1">
+        <v>42590</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>42590</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>42591</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>42591</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.34375</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C103" t="s">
+        <v>124</v>
+      </c>
+      <c r="D103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C107" t="s">
+        <v>101</v>
+      </c>
+      <c r="D107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C108" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C109" t="s">
+        <v>145</v>
+      </c>
+      <c r="D109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C110" t="s">
+        <v>101</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C111" t="s">
+        <v>189</v>
+      </c>
+      <c r="D111" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="C113" t="s">
+        <v>189</v>
+      </c>
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>42592</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C116" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="C120" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>42593</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="C126" t="s">
+        <v>124</v>
+      </c>
+      <c r="D126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C129" t="s">
+        <v>144</v>
+      </c>
+      <c r="D129" t="s">
+        <v>112</v>
+      </c>
+      <c r="E129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C131" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>42594</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B133" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="C133" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" t="s">
+        <v>112</v>
+      </c>
+      <c r="E133" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="C135" t="s">
+        <v>99</v>
+      </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+      <c r="E135" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>42595</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>42597</v>
+      </c>
+      <c r="B137" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>42597</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>42598</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>42598</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C141" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C142" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C143" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="C144" t="s">
+        <v>99</v>
+      </c>
+      <c r="D144" t="s">
+        <v>163</v>
+      </c>
+      <c r="E144" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="C145" t="s">
+        <v>102</v>
+      </c>
+      <c r="D145" t="s">
+        <v>164</v>
+      </c>
+      <c r="E145" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.59375</v>
+      </c>
+      <c r="C146" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C147" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="C148" t="s">
+        <v>167</v>
+      </c>
+      <c r="D148" t="s">
+        <v>168</v>
+      </c>
+      <c r="E148" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C149" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="C150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D150" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>42599</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C152" t="s">
+        <v>5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B153" s="2">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="C153" t="s">
+        <v>145</v>
+      </c>
+      <c r="D153" t="s">
+        <v>172</v>
+      </c>
+      <c r="E153" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C154" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B155" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C155" t="s">
+        <v>124</v>
+      </c>
+      <c r="D155" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C156" t="s">
+        <v>173</v>
+      </c>
+      <c r="D156" t="s">
+        <v>175</v>
+      </c>
+      <c r="E156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C157" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" t="s">
+        <v>176</v>
+      </c>
+      <c r="E157" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C159" t="s">
+        <v>101</v>
+      </c>
+      <c r="D159" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B160" s="2">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C160" t="s">
+        <v>178</v>
+      </c>
+      <c r="D160" t="s">
+        <v>179</v>
+      </c>
+      <c r="E160" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B161" s="2">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="C162" t="s">
+        <v>101</v>
+      </c>
+      <c r="D162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B164" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B165" s="2">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C165" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D166" t="s">
+        <v>112</v>
+      </c>
+      <c r="E166" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>42600</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C168" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" t="s">
+        <v>186</v>
+      </c>
+      <c r="E168" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B169" s="2">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="C170" t="s">
+        <v>185</v>
+      </c>
+      <c r="D170" t="s">
+        <v>175</v>
+      </c>
+      <c r="E170" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B171" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C171" t="s">
+        <v>101</v>
+      </c>
+      <c r="D171" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B172" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C172" t="s">
+        <v>5</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B173" s="2">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C173" t="s">
+        <v>145</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C174" t="s">
+        <v>124</v>
+      </c>
+      <c r="D174" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B175" s="2">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="C175" t="s">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>42601</v>
+      </c>
+      <c r="B176" s="2">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
@@ -2806,17 +3796,41 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A1:E255">
+    <sortCondition ref="A1:A255"/>
+    <sortCondition ref="B1:B255"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>chargebacks</formula1>
